--- a/inputs/backup/PO.xlsx
+++ b/inputs/backup/PO.xlsx
@@ -14,24 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Number</t>
   </si>
   <si>
-    <t>21-0032-001</t>
-  </si>
-  <si>
-    <t>21-0032-002</t>
-  </si>
-  <si>
-    <t>21-0032-xx3</t>
+    <t>21-0001-xx1</t>
   </si>
   <si>
     <t>Supplier</t>
   </si>
   <si>
-    <t>Ecofibras</t>
+    <t>Eco Baltija</t>
   </si>
   <si>
     <t>Origin</t>
@@ -43,13 +37,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>08.12.2021</t>
+    <t>14.12.2021</t>
   </si>
   <si>
     <t>Material</t>
   </si>
   <si>
-    <t>OCC 12</t>
+    <t>1.01 - Mixed paper and board</t>
   </si>
   <si>
     <t>Cntrs</t>
@@ -58,16 +52,13 @@
     <t>Tons</t>
   </si>
   <si>
-    <t>100.00</t>
+    <t>11.00</t>
   </si>
   <si>
     <t>Purchaise price</t>
   </si>
   <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>145.00</t>
+    <t>1.00</t>
   </si>
   <si>
     <t>Currency</t>
@@ -79,10 +70,7 @@
     <t>Supp. payment terms</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>90</t>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -440,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,31 +474,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
       <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -521,101 +509,31 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
       <c r="G3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
       <c r="K3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/backup/PO.xlsx
+++ b/inputs/backup/PO.xlsx
@@ -14,35 +14,80 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>Number</t>
   </si>
   <si>
-    <t>21-0001-xx1</t>
+    <t>21-6853-001</t>
+  </si>
+  <si>
+    <t>22-7789-001</t>
+  </si>
+  <si>
+    <t>22-7571-002</t>
+  </si>
+  <si>
+    <t>22-7571-003</t>
+  </si>
+  <si>
+    <t>22-7571-001</t>
+  </si>
+  <si>
+    <t>22-7789-xx1</t>
+  </si>
+  <si>
+    <t>number</t>
   </si>
   <si>
     <t>Supplier</t>
   </si>
   <si>
-    <t>Eco Baltija</t>
+    <t>Poninka</t>
+  </si>
+  <si>
+    <t>Waste Eco Service</t>
+  </si>
+  <si>
+    <t>Vtorma</t>
+  </si>
+  <si>
+    <t>MD Investment</t>
+  </si>
+  <si>
+    <t>Adiprima</t>
   </si>
   <si>
     <t>Origin</t>
   </si>
   <si>
-    <t>Corinto</t>
+    <t>Kiev</t>
+  </si>
+  <si>
+    <t>Brovary</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>14.12.2021</t>
+    <t>03.01.2022</t>
+  </si>
+  <si>
+    <t>21.01.2022</t>
+  </si>
+  <si>
+    <t>11.01.2022</t>
   </si>
   <si>
     <t>Material</t>
   </si>
   <si>
+    <t>Testliner / Rolls</t>
+  </si>
+  <si>
+    <t>3.05 - SWL / White woodfree letters</t>
+  </si>
+  <si>
     <t>1.01 - Mixed paper and board</t>
   </si>
   <si>
@@ -52,13 +97,31 @@
     <t>Tons</t>
   </si>
   <si>
-    <t>11.00</t>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>1.00</t>
   </si>
   <si>
     <t>Purchaise price</t>
   </si>
   <si>
-    <t>1.00</t>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>270.00</t>
+  </si>
+  <si>
+    <t>395.00</t>
   </si>
   <si>
     <t>Currency</t>
@@ -67,10 +130,16 @@
     <t>USD</t>
   </si>
   <si>
+    <t>EUR</t>
+  </si>
+  <si>
     <t>Supp. payment terms</t>
   </si>
   <si>
-    <t>12</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -428,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,31 +543,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -509,31 +578,241 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
